--- a/Document/이윤석/0계획서/2024-1월,2월 계획안.xlsx
+++ b/Document/이윤석/0계획서/2024-1월,2월 계획안.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\2023CapstoneProject\Document\이윤석\0계획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1AFDBF-E721-4C92-9219-E826A1A87C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E266B1-32DC-407B-8ED4-12D69843D68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9D394BAF-A7B0-45D0-A868-E60C4D46FB0D}"/>
+    <workbookView xWindow="4185" yWindow="450" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{9D394BAF-A7B0-45D0-A868-E60C4D46FB0D}"/>
   </bookViews>
   <sheets>
     <sheet name="메인" sheetId="1" r:id="rId1"/>
@@ -828,75 +828,207 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -905,69 +1037,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -976,75 +1045,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1363,7 +1363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC6A353-D8FD-4122-9B91-0C4E87252686}">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1410,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F98605-1609-4047-9B50-ECA83FC660F4}">
   <dimension ref="B1:Y26"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1434,146 +1434,146 @@
       </c>
     </row>
     <row r="5" spans="2:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="26"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="34"/>
     </row>
     <row r="6" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="29"/>
-      <c r="U6" s="36" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="37"/>
+      <c r="U6" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="38"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="43"/>
     </row>
     <row r="7" spans="2:25" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="29"/>
-      <c r="U7" s="41" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="37"/>
+      <c r="U7" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="40" t="s">
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+      <c r="X7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Y7" s="42" t="s">
+      <c r="Y7" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:25" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="30"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="32"/>
-      <c r="U8" s="41" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="40"/>
+      <c r="U8" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="V8" s="39"/>
-      <c r="W8" s="39"/>
-      <c r="X8" s="48">
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+      <c r="X8" s="15">
         <v>0.5</v>
       </c>
-      <c r="Y8" s="42"/>
+      <c r="Y8" s="11"/>
     </row>
     <row r="9" spans="2:25" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="U9" s="41" t="s">
+      <c r="U9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="48">
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="15">
         <v>0.5</v>
       </c>
-      <c r="Y9" s="42"/>
+      <c r="Y9" s="11"/>
     </row>
     <row r="10" spans="2:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="66"/>
-      <c r="C10" s="67" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="67" t="s">
+      <c r="G10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="68" t="s">
+      <c r="I10" s="23" t="s">
         <v>33</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -1587,471 +1587,486 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
-      <c r="U10" s="41" t="s">
+      <c r="U10" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="48">
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+      <c r="X10" s="15">
         <v>0.8</v>
       </c>
-      <c r="Y10" s="42"/>
+      <c r="Y10" s="11"/>
     </row>
     <row r="11" spans="2:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="69" t="s">
+      <c r="B11" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16">
         <v>23</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="16">
         <v>24</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="16">
         <v>25</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H11" s="16">
         <v>26</v>
       </c>
-      <c r="I11" s="70">
+      <c r="I11" s="25">
         <v>27</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="L11" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="21"/>
-      <c r="U11" s="41" t="s">
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="54"/>
+      <c r="U11" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="42"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="11"/>
     </row>
     <row r="12" spans="2:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="71"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="72" t="s">
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="27" t="s">
         <v>35</v>
       </c>
       <c r="K12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="54"/>
+      <c r="U12" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+      <c r="X12" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="21"/>
-      <c r="U12" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="48">
+      <c r="C13" s="17">
+        <v>28</v>
+      </c>
+      <c r="D13" s="17">
+        <v>29</v>
+      </c>
+      <c r="E13" s="17">
+        <v>30</v>
+      </c>
+      <c r="F13" s="17">
+        <v>31</v>
+      </c>
+      <c r="G13" s="17">
         <v>1</v>
       </c>
-      <c r="Y12" s="42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="2:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="50">
-        <v>28</v>
-      </c>
-      <c r="D13" s="50">
-        <v>29</v>
-      </c>
-      <c r="E13" s="50">
-        <v>30</v>
-      </c>
-      <c r="F13" s="50">
-        <v>31</v>
-      </c>
-      <c r="G13" s="50">
-        <v>1</v>
-      </c>
-      <c r="H13" s="50">
+      <c r="H13" s="17">
         <v>2</v>
       </c>
-      <c r="I13" s="73">
+      <c r="I13" s="28">
         <v>3</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="23"/>
-      <c r="U13" s="41" t="s">
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="57"/>
+      <c r="U13" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="42"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="11"/>
     </row>
     <row r="14" spans="2:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="71"/>
-      <c r="C14" s="53" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55" t="s">
+      <c r="D14" s="59"/>
+      <c r="E14" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56" t="s">
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="74"/>
+      <c r="I14" s="51"/>
       <c r="K14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="23"/>
-      <c r="U14" s="41" t="s">
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="57"/>
+      <c r="U14" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="42"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="11"/>
     </row>
     <row r="15" spans="2:25" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="17">
         <v>4</v>
       </c>
-      <c r="D15" s="50">
+      <c r="D15" s="17">
         <v>5</v>
       </c>
-      <c r="E15" s="50">
+      <c r="E15" s="17">
         <v>6</v>
       </c>
-      <c r="F15" s="50">
+      <c r="F15" s="17">
         <v>7</v>
       </c>
-      <c r="G15" s="50">
+      <c r="G15" s="17">
         <v>8</v>
       </c>
-      <c r="H15" s="50">
+      <c r="H15" s="17">
         <v>9</v>
       </c>
-      <c r="I15" s="73">
+      <c r="I15" s="28">
         <v>10</v>
       </c>
-      <c r="J15" s="43"/>
+      <c r="J15" s="12"/>
       <c r="K15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="12"/>
-      <c r="U15" s="44" t="s">
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="74"/>
+      <c r="U15" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="14"/>
     </row>
     <row r="16" spans="2:25" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="75"/>
-      <c r="C16" s="57" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59" t="s">
+      <c r="D16" s="81"/>
+      <c r="E16" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="60" t="s">
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="76" t="s">
+      <c r="I16" s="30" t="s">
         <v>43</v>
       </c>
       <c r="K16" s="4"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="12"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="74"/>
     </row>
     <row r="17" spans="2:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="71" t="s">
+      <c r="B17" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="17">
         <v>11</v>
       </c>
-      <c r="D17" s="50">
+      <c r="D17" s="17">
         <v>12</v>
       </c>
-      <c r="E17" s="50">
+      <c r="E17" s="17">
         <v>13</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F17" s="17">
         <v>14</v>
       </c>
-      <c r="G17" s="50">
+      <c r="G17" s="17">
         <v>15</v>
       </c>
-      <c r="H17" s="50">
+      <c r="H17" s="17">
         <v>16</v>
       </c>
-      <c r="I17" s="73">
+      <c r="I17" s="28">
         <v>17</v>
       </c>
-      <c r="J17" s="43"/>
+      <c r="J17" s="12"/>
       <c r="K17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="16"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="63"/>
     </row>
     <row r="18" spans="2:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="71"/>
-      <c r="C18" s="61" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="62" t="s">
+      <c r="D18" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="63" t="s">
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="77"/>
+      <c r="I18" s="65"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="16"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="63"/>
     </row>
     <row r="19" spans="2:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="50">
+      <c r="C19" s="17">
         <v>18</v>
       </c>
-      <c r="D19" s="50">
+      <c r="D19" s="17">
         <v>19</v>
       </c>
-      <c r="E19" s="50">
+      <c r="E19" s="17">
         <v>20</v>
       </c>
-      <c r="F19" s="50">
+      <c r="F19" s="17">
         <v>21</v>
       </c>
-      <c r="G19" s="50">
+      <c r="G19" s="17">
         <v>22</v>
       </c>
-      <c r="H19" s="50">
+      <c r="H19" s="17">
         <v>23</v>
       </c>
-      <c r="I19" s="70">
+      <c r="I19" s="25">
         <v>24</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="16"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="63"/>
     </row>
     <row r="20" spans="2:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="75"/>
-      <c r="C20" s="64" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="65" t="s">
+      <c r="D20" s="67"/>
+      <c r="E20" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="78"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="69"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="16"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="63"/>
     </row>
     <row r="21" spans="2:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="50">
+      <c r="C21" s="17">
         <v>25</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="17">
         <v>26</v>
       </c>
-      <c r="E21" s="50">
+      <c r="E21" s="17">
         <v>27</v>
       </c>
-      <c r="F21" s="50">
+      <c r="F21" s="17">
         <v>28</v>
       </c>
-      <c r="G21" s="50">
+      <c r="G21" s="17">
         <v>29</v>
       </c>
-      <c r="H21" s="50"/>
-      <c r="I21" s="70"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="25"/>
       <c r="K21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="12"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="74"/>
     </row>
     <row r="22" spans="2:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="79"/>
-      <c r="C22" s="80" t="s">
+      <c r="B22" s="31"/>
+      <c r="C22" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="80"/>
-      <c r="E22" s="81" t="s">
+      <c r="D22" s="70"/>
+      <c r="E22" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="82"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="72"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="18"/>
+      <c r="L22" s="75"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="75"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="76"/>
     </row>
     <row r="23" spans="2:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="35"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="79"/>
     </row>
     <row r="24" spans="2:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="2:19" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="14"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="62"/>
     </row>
     <row r="26" spans="2:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B25:S25"/>
+    <mergeCell ref="L17:S18"/>
+    <mergeCell ref="L19:S20"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="L21:S22"/>
+    <mergeCell ref="L15:S16"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
     <mergeCell ref="B5:S8"/>
     <mergeCell ref="U6:Y6"/>
     <mergeCell ref="U7:W7"/>
@@ -2068,21 +2083,6 @@
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="L11:S12"/>
     <mergeCell ref="L13:S14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B25:S25"/>
-    <mergeCell ref="L17:S18"/>
-    <mergeCell ref="L19:S20"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="L21:S22"/>
-    <mergeCell ref="L15:S16"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
